--- a/team_specific_matrix/Reinhardt_B.xlsx
+++ b/team_specific_matrix/Reinhardt_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.5714285714285714</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="S8">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S9">
-        <v>0.6</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06666666666666667</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03333333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03333333333333333</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.15</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03333333333333333</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3166666666666667</v>
+        <v>0.3405797101449275</v>
       </c>
       <c r="R10">
-        <v>0.06666666666666667</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.3</v>
+        <v>0.2971014492753623</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2222222222222222</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K11">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.2</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K15">
-        <v>0.1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.4</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04545454545454546</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1363636363636364</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="I17">
-        <v>0.04545454545454546</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J17">
-        <v>0.6363636363636364</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04545454545454546</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09090909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.2222222222222222</v>
+        <v>0.15</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.2222222222222222</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I19">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J19">
-        <v>0.4375</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="K19">
-        <v>0.1458333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04166666666666666</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.2083333333333333</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
   </sheetData>
